--- a/.idea/new_fed_soma.xlsx
+++ b/.idea/new_fed_soma.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B375"/>
+  <dimension ref="A1:B372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3391,63 +3391,27 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>20082200</t>
-        </is>
+      <c r="A370" t="n">
+        <v>20082200</v>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>20082300</t>
-        </is>
+      <c r="A371" t="n">
+        <v>20082300</v>
       </c>
       <c r="B371" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>20082400</t>
-        </is>
+      <c r="A372" t="n">
+        <v>20082400</v>
       </c>
       <c r="B372" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>20082500</t>
-        </is>
-      </c>
-      <c r="B373" t="n">
-        <v>6218625100</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>20082600</t>
-        </is>
-      </c>
-      <c r="B374" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>20082700</t>
-        </is>
-      </c>
-      <c r="B375" t="n">
-        <v>8672784200</v>
       </c>
     </row>
   </sheetData>

--- a/.idea/new_fed_soma.xlsx
+++ b/.idea/new_fed_soma.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B372"/>
+  <dimension ref="A1:B379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3414,6 +3414,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>20082500</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>20082600</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>20082700</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>20082800</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>20082900</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>20083000</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>20083100</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/new_fed_soma.xlsx
+++ b/.idea/new_fed_soma.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B379"/>
+  <dimension ref="A1:B386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3470,6 +3470,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>20090100</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>20090200</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>20090300</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>20090400</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>20090500</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>20090600</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>20090700</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/new_fed_soma.xlsx
+++ b/.idea/new_fed_soma.xlsx
@@ -3419,7 +3419,7 @@
         <v>20082500</v>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>6218625100</v>
       </c>
     </row>
     <row r="374">
@@ -3435,7 +3435,7 @@
         <v>20082700</v>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>8672784200</v>
       </c>
     </row>
     <row r="376">
@@ -3467,7 +3467,7 @@
         <v>20083100</v>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>15637301200</v>
       </c>
     </row>
     <row r="380">
@@ -3475,7 +3475,7 @@
         <v>20090100</v>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>6097975400</v>
       </c>
     </row>
     <row r="381">
@@ -3491,7 +3491,7 @@
         <v>20090300</v>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>12700077000</v>
       </c>
     </row>
     <row r="383">

--- a/.idea/new_fed_soma.xlsx
+++ b/.idea/new_fed_soma.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B386"/>
+  <dimension ref="A1:B393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3526,6 +3526,62 @@
         <v>0</v>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>20090800</v>
+      </c>
+      <c r="B387" t="n">
+        <v>6307642100</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>20090900</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>20091000</v>
+      </c>
+      <c r="B389" t="n">
+        <v>14700834300</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>20091100</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>20091200</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>20091300</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>20091400</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/.idea/new_fed_soma.xlsx
+++ b/.idea/new_fed_soma.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B393"/>
+  <dimension ref="A1:B383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3502,86 +3502,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>20090500</v>
-      </c>
-      <c r="B384" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>20090600</v>
-      </c>
-      <c r="B385" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>20090700</v>
-      </c>
-      <c r="B386" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>20090800</v>
-      </c>
-      <c r="B387" t="n">
-        <v>6307642100</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>20090900</v>
-      </c>
-      <c r="B388" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>20091000</v>
-      </c>
-      <c r="B389" t="n">
-        <v>14700834300</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>20091100</v>
-      </c>
-      <c r="B390" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>20091200</v>
-      </c>
-      <c r="B391" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>20091300</v>
-      </c>
-      <c r="B392" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>20091400</v>
-      </c>
-      <c r="B393" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
